--- a/JA21326_20210809_TaqSeq_Putnam_BleachedPairs.xlsx
+++ b/JA21326_20210809_TaqSeq_Putnam_BleachedPairs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hputnam/MyProjects/Bleaching_Pairs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537A0B55-5E41-FC47-89DC-7433A91B7837}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C95413-A3F5-6D49-9BE9-D0F5391E8AAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="34380" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
